--- a/accuracies.xlsx
+++ b/accuracies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Switchdrive\Uni\FS 21\Introduction to Data Science\heart-disease\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8114586F-5062-4278-A092-7C6C971C03B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5846BCF9-0750-4F3B-9258-371AB36A48B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2A7BAC5E-04F7-42B4-96E3-BAD9460B1FC0}"/>
+    <workbookView xWindow="37665" yWindow="2265" windowWidth="13560" windowHeight="9060" xr2:uid="{2A7BAC5E-04F7-42B4-96E3-BAD9460B1FC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>Cleveland</t>
   </si>
@@ -62,19 +62,52 @@
     <t>Naive Bayes AUC-Score</t>
   </si>
   <si>
-    <t>SVC linear Acc</t>
-  </si>
-  <si>
-    <t>SVC multi (deg 3) Acc</t>
-  </si>
-  <si>
-    <t>SVC kernel (rbf) Acc</t>
-  </si>
-  <si>
-    <t>Neural Acc</t>
-  </si>
-  <si>
-    <t>KNN Acc</t>
+    <t>SVC linearAccuracy</t>
+  </si>
+  <si>
+    <t>SVC kernel (rbf) Accuracy</t>
+  </si>
+  <si>
+    <t>KNN Accuracy</t>
+  </si>
+  <si>
+    <t>Neural Accuracy</t>
+  </si>
+  <si>
+    <t>metrics.accuracy_score(y_test, X_pred)</t>
+  </si>
+  <si>
+    <t>metrics.roc_auc_score(y_test_bin, probs_X)</t>
+  </si>
+  <si>
+    <t>where X is dependent on the method (e.g. log. Regression -&gt; LR_pred)</t>
+  </si>
+  <si>
+    <t>metrics.accuracy_score(y_test, svc_linear_pred)</t>
+  </si>
+  <si>
+    <t>metrics.accuracy_score(y_test, svc_rbf_pred)</t>
+  </si>
+  <si>
+    <t>metrics.accuracy_score(y_test, svc_poly_pred)</t>
+  </si>
+  <si>
+    <t>SVC poly(deg 3) Accuracy</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Accuracies</t>
+  </si>
+  <si>
+    <t>accuracy_score(y_test, knn_pred)</t>
+  </si>
+  <si>
+    <t>accuracy_score(y_test_bin, p)</t>
   </si>
 </sst>
 </file>
@@ -98,7 +131,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -106,12 +139,101 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -426,185 +548,253 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E8ADA4-0698-401B-BD44-39E5BE186F57}">
-  <dimension ref="A3:I13"/>
+  <dimension ref="B2:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="5" width="4.44140625" customWidth="1"/>
+    <col min="1" max="1" width="0.88671875" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="1.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="F3" t="s">
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G3" t="s">
+      <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="G4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2">
         <v>0.84</v>
       </c>
-      <c r="G5">
+      <c r="F5" s="2">
         <v>0.59</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="2">
         <v>0.74</v>
       </c>
-      <c r="I5">
+      <c r="H5" s="3">
         <v>0.65</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
         <v>0.95</v>
       </c>
-      <c r="G6">
+      <c r="F6" s="5">
         <v>0.75</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="5">
         <v>0.85</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H6" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F7">
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>0.77</v>
       </c>
-      <c r="G7">
+      <c r="F7" s="5">
         <v>0.46</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="5">
         <v>0.54</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8">
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
         <v>0.93</v>
       </c>
-      <c r="G8">
+      <c r="F8" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="5">
         <v>0.88</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9">
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
         <v>0.86</v>
       </c>
-      <c r="G9">
+      <c r="F9" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="5">
         <v>0.84</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F10">
-        <v>0.68</v>
-      </c>
-      <c r="G10">
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F11" s="5">
         <v>0.62</v>
       </c>
-      <c r="H10">
-        <v>0.38</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="G11" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F11">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="G11">
-        <v>0.62</v>
-      </c>
-      <c r="H11">
-        <v>0.2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12">
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5">
         <v>0.73</v>
       </c>
-      <c r="G12">
+      <c r="F12" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H12">
+      <c r="G12" s="5">
         <v>0.46</v>
       </c>
-      <c r="I12">
+      <c r="H12" s="6">
         <v>0.42</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F13">
+      <c r="C13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8">
         <v>0.48</v>
       </c>
-      <c r="G13">
+      <c r="F13" s="8">
         <v>0.42</v>
       </c>
-      <c r="H13">
+      <c r="G13" s="8">
         <v>0.08</v>
       </c>
-      <c r="I13">
+      <c r="H13" s="9">
         <v>0.23</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>